--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chars\Downloads\Automation_projects\Automation_projects\APITestingAutomation\RahulArora_Course\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C29D5-6205-4CC6-A917-C5A7B601542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6889888-4762-49D5-98E1-6CD93374BD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CE3FD4E0-8385-4C2C-A367-38D7662C091B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE3FD4E0-8385-4C2C-A367-38D7662C091B}"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
@@ -408,15 +408,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
